--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/15/seed3/result_data_KNN.xlsx
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.412</v>
+        <v>-22.305</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.124</v>
+        <v>-21.846</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.48</v>
+        <v>-21.546</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.018</v>
+        <v>-22.095</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.004</v>
+        <v>-19.997</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.964</v>
+        <v>-22.184</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.42</v>
+        <v>-21.567</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.77</v>
+        <v>-20.666</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.62</v>
+        <v>-19.951</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.76</v>
+        <v>-21.776</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9</v>
+        <v>-22.067</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
